--- a/src/test/resources/TestData/AVSQualFlow_TestData.xlsx
+++ b/src/test/resources/TestData/AVSQualFlow_TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay.Jyothula\eclipse-workspace\AVSQualFLow\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay.Jyothula\git\AVSQualFLow\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA48847-D62E-4D79-9459-A5F64C94E318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26711ABD-2454-4AFD-BF3E-AC6C2ED31F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVSQFSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="SetupsCreation" sheetId="2" r:id="rId2"/>
+    <sheet name="SaveButton_Validation" sheetId="3" r:id="rId2"/>
+    <sheet name="SetupsCreation" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
   <si>
     <t>SetupName</t>
   </si>
@@ -107,6 +108,12 @@
   </si>
   <si>
     <t>Case14</t>
+  </si>
+  <si>
+    <t>10.17.18.167</t>
+  </si>
+  <si>
+    <t>Ethernet IP-- 10.17.18.167</t>
   </si>
 </sst>
 </file>
@@ -471,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -525,11 +532,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDB6ED-50BF-4FB3-9C4A-B752D4C67365}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D40A701-DDF6-4BF0-A294-A5A000A28329}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/AVSQualFlow_TestData.xlsx
+++ b/src/test/resources/TestData/AVSQualFlow_TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay.Jyothula\git\AVSQualFLow\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26711ABD-2454-4AFD-BF3E-AC6C2ED31F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22F4F7F-E99D-42FA-9F31-104ED070BF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
